--- a/EAM/test_case/tc_cases.xlsx
+++ b/EAM/test_case/tc_cases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -44,9 +44,6 @@
                             }</t>
   </si>
   <si>
-    <t>{"data":{"login":{"__typename":"AuthInfo"}}}</t>
-  </si>
-  <si>
     <t>{
                               "account": "eam115",
                               "password": "teletraan",
@@ -54,7 +51,7 @@
                             }</t>
   </si>
   <si>
-    <t>{"errors":[{"message":"企业标识符错误，请重新填写"}]}</t>
+    <t>errors</t>
   </si>
   <si>
     <t>{
@@ -64,17 +61,11 @@
                             }</t>
   </si>
   <si>
-    <t>{"errors":[{"message":"用户不存在"}]}</t>
-  </si>
-  <si>
     <t>{
                               "account": "eam115",
                               "password": "teletraan22",
                               "tenantCode": "110"
                             }</t>
-  </si>
-  <si>
-    <t>{"errors":[{"message":"密码错误，请重新输入"}]}</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1013,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1064,7 +1055,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" ht="108" customHeight="1" spans="1:5">
@@ -1078,10 +1069,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" ht="142" customHeight="1" spans="1:5">
@@ -1095,10 +1086,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" ht="90" customHeight="1" spans="1:5">
@@ -1112,10 +1103,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/EAM/test_case/tc_cases.xlsx
+++ b/EAM/test_case/tc_cases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -44,6 +44,9 @@
                             }</t>
   </si>
   <si>
+    <t>AuthInfo</t>
+  </si>
+  <si>
     <t>{
                               "account": "eam115",
                               "password": "teletraan",
@@ -51,7 +54,7 @@
                             }</t>
   </si>
   <si>
-    <t>errors</t>
+    <t>企业标识符错误，请重新填写</t>
   </si>
   <si>
     <t>{
@@ -61,10 +64,30 @@
                             }</t>
   </si>
   <si>
+    <t>用户不存在</t>
+  </si>
+  <si>
     <t>{
                               "account": "eam115",
                               "password": "teletraan22",
                               "tenantCode": "110"
+                            }</t>
+  </si>
+  <si>
+    <t>密码错误，请重新输入</t>
+  </si>
+  <si>
+    <t>{
+                              "account": "eam1151",
+                              "password": "teletraan",
+                              "tenantCode": "110"
+                            }</t>
+  </si>
+  <si>
+    <t>{
+                              "account": "eam115",
+                              "password": "teletraan",
+                              "tenantCode": "1101"
                             }</t>
   </si>
 </sst>
@@ -1010,13 +1033,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="58.2222222222222" customWidth="1"/>
@@ -1055,7 +1078,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="108" customHeight="1" spans="1:5">
@@ -1069,10 +1092,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="142" customHeight="1" spans="1:5">
@@ -1086,10 +1109,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="90" customHeight="1" spans="1:5">
@@ -1103,10 +1126,61 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="97" customHeight="1" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="100.8" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="86.4" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/EAM/test_case/tc_cases.xlsx
+++ b/EAM/test_case/tc_cases.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="category" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -89,6 +90,70 @@
                               "password": "teletraan",
                               "tenantCode": "1101"
                             }</t>
+  </si>
+  <si>
+    <t>https://teamsit.teletraan.io/graphql/?createThingCategory</t>
+  </si>
+  <si>
+    <t>{
+                                  "code": "3332212",
+                                  "name": "1aaad",
+                                  "parentId": 10118
+                                }</t>
+  </si>
+  <si>
+    <t>{
+                                  "code": "222",
+                                  "name": "1111",
+                                  "parentId": 10118
+                                }</t>
+  </si>
+  <si>
+    <t>同一父级下已存在同名的资产类别</t>
+  </si>
+  <si>
+    <t>{
+                                  "code": "222",
+                                  "name": "11sasdjj",
+                                  "parentId": 10118
+                                }</t>
+  </si>
+  <si>
+    <t>{
+                                  "code": "222ka",
+                                  "name": "111221",
+                                  "parentId": 10118223
+                                }</t>
+  </si>
+  <si>
+    <t>insert or update on table "thing_category" violates foreign key constraint "thing_category_parent_id_fkey"</t>
+  </si>
+  <si>
+    <t>{
+                                  "code": "2222221",
+                                  "name": "",
+                                  "parentId": 10118
+                                }</t>
+  </si>
+  <si>
+    <t>{
+                                  "code": "汉字",
+                                  "name": "11118488",
+                                  "parentId": 10118
+                                }</t>
+  </si>
+  <si>
+    <t>仅允许输入大小写英文字母、数字及特殊符号(-~·/\|_)</t>
+  </si>
+  <si>
+    <t>{
+                                  "code": "dass22ss",
+                                  "name": "11swd88",
+                                  "parentId": ""
+                                }</t>
+  </si>
+  <si>
+    <t>Variable \"$input\" got invalid value \"\" at \"input.parentId\"; Int cannot represent non-integer value: \"\"</t>
   </si>
 </sst>
 </file>
@@ -110,6 +175,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -133,14 +206,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,10 +627,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,19 +639,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,13 +684,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -637,10 +702,10 @@
     <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -655,57 +720,60 @@
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1035,8 +1103,8 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1071,10 +1139,10 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
@@ -1088,10 +1156,10 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
@@ -1105,10 +1173,10 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
@@ -1122,10 +1190,10 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
@@ -1139,10 +1207,10 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
@@ -1156,10 +1224,10 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
@@ -1173,10 +1241,10 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
@@ -1187,4 +1255,171 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="61.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="39.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="54.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="115.2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="115.2" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="115.2" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="115.2" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" ht="115.2" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="115.2" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" ht="115.2" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://teamsit.teletraan.io/graphql/?createThingCategory"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://teamsit.teletraan.io/graphql/?createThingCategory" tooltip="https://teamsit.teletraan.io/graphql/?createThingCategory"/>
+    <hyperlink ref="C4" r:id="rId1" display="https://teamsit.teletraan.io/graphql/?createThingCategory"/>
+    <hyperlink ref="C5" r:id="rId1" display="https://teamsit.teletraan.io/graphql/?createThingCategory"/>
+    <hyperlink ref="C6" r:id="rId1" display="https://teamsit.teletraan.io/graphql/?createThingCategory"/>
+    <hyperlink ref="C7" r:id="rId1" display="https://teamsit.teletraan.io/graphql/?createThingCategory"/>
+    <hyperlink ref="C8" r:id="rId1" display="https://teamsit.teletraan.io/graphql/?createThingCategory"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/EAM/test_case/tc_cases.xlsx
+++ b/EAM/test_case/tc_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcy/PycharmProjects/study_api/EAM/test_case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9A910F-AFB6-294A-800F-B3DECDBED754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887C3671-E226-AE4F-9171-8C623F9E8741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1420" windowWidth="26480" windowHeight="13340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -69,14 +69,6 @@
                               "password": "teletraan22",
                               "tenantCode": "110"
                             }</t>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>errors</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -453,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="143" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -495,8 +487,8 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
+      <c r="E2" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="108" customHeight="1">
@@ -512,8 +504,8 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
+      <c r="E3" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="142" customHeight="1">
@@ -529,8 +521,8 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
+      <c r="E4" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="90" customHeight="1">
@@ -546,8 +538,8 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
+      <c r="E5" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="90">
@@ -558,13 +550,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="75">
@@ -575,13 +567,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="90">
@@ -592,13 +584,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/EAM/test_case/tc_cases.xlsx
+++ b/EAM/test_case/tc_cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -96,14 +96,14 @@
   </si>
   <si>
     <t>{
-                                  "code": "3332212",
-                                  "name": "1aaad",
+                                  "code": "333221weq22",
+                                  "name": "1aaadsd3",
                                   "parentId": 10118
                                 }</t>
   </si>
   <si>
     <t>{
-                                  "code": "222",
+                                  "code": "2221",
                                   "name": "1111",
                                   "parentId": 10118
                                 }</t>
@@ -147,13 +147,10 @@
   </si>
   <si>
     <t>{
-                                  "code": "dass22ss",
-                                  "name": "11swd88",
-                                  "parentId": ""
+                                  "code": "22zs221",
+                                  "name": "wwwwasd3",
+                                  "parentId": 223442
                                 }</t>
-  </si>
-  <si>
-    <t>Variable \"$input\" got invalid value \"\" at \"input.parentId\"; Int cannot represent non-integer value: \"\"</t>
   </si>
 </sst>
 </file>
@@ -1262,8 +1259,8 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1406,7 +1403,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/EAM/test_case/tc_cases.xlsx
+++ b/EAM/test_case/tc_cases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -151,6 +151,60 @@
                                   "name": "wwwwasd3",
                                   "parentId": 223442
                                 }</t>
+  </si>
+  <si>
+    <t>https://teamsit.teletraan.io/graphql/?updateThingCategory</t>
+  </si>
+  <si>
+    <t>{
+                                  "code": "666378",
+                                  "id": 10118,
+                                  "name": "编辑的类的"
+                                }</t>
+  </si>
+  <si>
+    <t>{
+                                  "code": "",
+                                  "id": 10118,
+                                  "name": "编辑的类的"
+                                }</t>
+  </si>
+  <si>
+    <t>{
+                                  "code": 222,
+                                  "id": 10118,
+                                  "name": "编辑的类的"
+                                }</t>
+  </si>
+  <si>
+    <t>Variable "$input" got invalid value 222 at "input.code"; String cannot represent a non string value: 222</t>
+  </si>
+  <si>
+    <t>{
+                                  "code": "111223",
+                                  "id": 10118,
+                                  "name": ""
+                                }</t>
+  </si>
+  <si>
+    <t>{
+                                  "code": "111qwexs3",
+                                  "id": 10119,
+                                  "name": "wdwe"
+                                }</t>
+  </si>
+  <si>
+    <t>资产类别不存在</t>
+  </si>
+  <si>
+    <t>{
+                                  "code": "111qwexs3",
+                                  "id": "",
+                                  "name": "wdwe"
+                                }</t>
+  </si>
+  <si>
+    <t>Variable \"$input\" got invalid value \"\" at \"input.id\"; Int cannot represent non-integer value: \"\"</t>
   </si>
 </sst>
 </file>
@@ -1257,13 +1311,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="61.2222222222222" customWidth="1"/>
     <col min="4" max="4" width="39.1111111111111" customWidth="1"/>
@@ -1406,6 +1460,108 @@
         <v>23</v>
       </c>
     </row>
+    <row r="9" ht="115.2" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="181" customHeight="1" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="115.2" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="115.2" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="115.2" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" ht="108" customHeight="1" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://teamsit.teletraan.io/graphql/?createThingCategory"/>
@@ -1415,6 +1571,12 @@
     <hyperlink ref="C6" r:id="rId1" display="https://teamsit.teletraan.io/graphql/?createThingCategory"/>
     <hyperlink ref="C7" r:id="rId1" display="https://teamsit.teletraan.io/graphql/?createThingCategory"/>
     <hyperlink ref="C8" r:id="rId1" display="https://teamsit.teletraan.io/graphql/?createThingCategory"/>
+    <hyperlink ref="C9" r:id="rId2" display="https://teamsit.teletraan.io/graphql/?updateThingCategory" tooltip="https://teamsit.teletraan.io/graphql/?updateThingCategory"/>
+    <hyperlink ref="C10" r:id="rId2" display="https://teamsit.teletraan.io/graphql/?updateThingCategory" tooltip="https://teamsit.teletraan.io/graphql/?updateThingCategory"/>
+    <hyperlink ref="C11" r:id="rId2" display="https://teamsit.teletraan.io/graphql/?updateThingCategory" tooltip="https://teamsit.teletraan.io/graphql/?updateThingCategory"/>
+    <hyperlink ref="C12" r:id="rId2" display="https://teamsit.teletraan.io/graphql/?updateThingCategory" tooltip="https://teamsit.teletraan.io/graphql/?updateThingCategory"/>
+    <hyperlink ref="C13" r:id="rId2" display="https://teamsit.teletraan.io/graphql/?updateThingCategory" tooltip="https://teamsit.teletraan.io/graphql/?updateThingCategory"/>
+    <hyperlink ref="C14" r:id="rId2" display="https://teamsit.teletraan.io/graphql/?updateThingCategory" tooltip="https://teamsit.teletraan.io/graphql/?updateThingCategory"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/EAM/test_case/tc_cases.xlsx
+++ b/EAM/test_case/tc_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcy/PycharmProjects/study_api/EAM/test_case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A7A133-1A2E-5443-9C55-400F3E15A55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5292B9-7216-9840-9136-1F59794C837E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1420" windowWidth="26480" windowHeight="13340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,14 +132,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "code": "2112",
-    "name": "eew",
-    "parentId": 58
-  }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Variable \"$input\" got invalid value \"\" at \"input.parentId\"; Int cannot represent non-integer value: \"\"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -156,14 +148,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-  "code": "2cd2",
-  "name": "2200ew",
-  "parentId": 58
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://teamsit.teletraan.io/graphql/?updateThingArea</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -184,6 +168,22 @@
     "code": "ej12",
     "name": "dsew",
     "id": 101
+  }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "code": "999d2",
+  "name": "2jskdew",
+  "parentId": 58
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": "2112",
+    "name": "q2121",
+    "parentId": 58
   }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -709,7 +709,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -747,7 +747,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
@@ -764,10 +764,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="75">
@@ -781,10 +781,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="137" customHeight="1">
@@ -795,13 +795,13 @@
         <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="88" customHeight="1">
@@ -812,13 +812,13 @@
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
